--- a/test/functional/xlsx_files/set_selection02.xlsx
+++ b/test/functional/xlsx_files/set_selection02.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
